--- a/data/input/absenteeism_data_16.xlsx
+++ b/data/input/absenteeism_data_16.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50921</v>
+        <v>51814</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Theo Costa</t>
+          <t>Felipe Moura</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45104</v>
+        <v>45096</v>
       </c>
       <c r="G2" t="n">
-        <v>5213.06</v>
+        <v>4146.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>55872</v>
+        <v>46656</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pedro Henrique Costela</t>
+          <t>Luigi Nascimento</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45082</v>
+        <v>45087</v>
       </c>
       <c r="G3" t="n">
-        <v>12073.79</v>
+        <v>4143.03</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68327</v>
+        <v>92190</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caroline Moraes</t>
+          <t>Emanuelly Aragão</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45095</v>
+        <v>45100</v>
       </c>
       <c r="G4" t="n">
-        <v>5786.76</v>
+        <v>7997.02</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>96944</v>
+        <v>57170</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maitê Sales</t>
+          <t>Luiza Martins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,56 +581,56 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45079</v>
+        <v>45087</v>
       </c>
       <c r="G5" t="n">
-        <v>3497.59</v>
+        <v>4775.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>58459</v>
+        <v>7150</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Júlia Peixoto</t>
+          <t>Miguel da Costa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45102</v>
+        <v>45081</v>
       </c>
       <c r="G6" t="n">
-        <v>11711.39</v>
+        <v>9485.610000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>80510</v>
+        <v>1988</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luiz Fernando Cavalcanti</t>
+          <t>Srta. Júlia Caldeira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,56 +639,56 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45078</v>
+        <v>45096</v>
       </c>
       <c r="G7" t="n">
-        <v>4568.78</v>
+        <v>6433.11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>59416</v>
+        <v>20645</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ana Sophia Nascimento</t>
+          <t>Yasmin Pires</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45094</v>
+        <v>45091</v>
       </c>
       <c r="G8" t="n">
-        <v>11684.75</v>
+        <v>5987.26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>83122</v>
+        <v>50338</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lucas Novaes</t>
+          <t>Emanuella Vieira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,56 +697,56 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45099</v>
+        <v>45105</v>
       </c>
       <c r="G9" t="n">
-        <v>7633.13</v>
+        <v>7799.29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>97858</v>
+        <v>76988</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pedro Henrique Pereira</t>
+          <t>João Silveira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45097</v>
+        <v>45083</v>
       </c>
       <c r="G10" t="n">
-        <v>8281.530000000001</v>
+        <v>9052.42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>55065</v>
+        <v>52421</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Davi Luiz Ramos</t>
+          <t>Sr. Vinicius Jesus</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45086</v>
+        <v>45080</v>
       </c>
       <c r="G11" t="n">
-        <v>6072.92</v>
+        <v>5255.87</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_16.xlsx
+++ b/data/input/absenteeism_data_16.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>51814</v>
+        <v>10110</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Felipe Moura</t>
+          <t>Sra. Luana Farias</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45096</v>
+        <v>45102</v>
       </c>
       <c r="G2" t="n">
-        <v>4146.25</v>
+        <v>12051.64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>46656</v>
+        <v>7767</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luigi Nascimento</t>
+          <t>Cauã Pinto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,31 +519,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45087</v>
+        <v>45106</v>
       </c>
       <c r="G3" t="n">
-        <v>4143.03</v>
+        <v>10529.99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>92190</v>
+        <v>75028</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Emanuelly Aragão</t>
+          <t>Maria Vitória Barros</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,56 +552,56 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45100</v>
+        <v>45093</v>
       </c>
       <c r="G4" t="n">
-        <v>7997.02</v>
+        <v>9209.219999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>57170</v>
+        <v>24652</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luiza Martins</t>
+          <t>Gabriela Castro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45087</v>
+        <v>45088</v>
       </c>
       <c r="G5" t="n">
-        <v>4775.02</v>
+        <v>8649.07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7150</v>
+        <v>83662</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Miguel da Costa</t>
+          <t>Srta. Ana Júlia Gonçalves</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,22 +610,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45081</v>
+        <v>45105</v>
       </c>
       <c r="G6" t="n">
-        <v>9485.610000000001</v>
+        <v>4021.59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1988</v>
+        <v>42418</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Srta. Júlia Caldeira</t>
+          <t>Raul Moraes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,27 +639,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45096</v>
+        <v>45100</v>
       </c>
       <c r="G7" t="n">
-        <v>6433.11</v>
+        <v>12204.63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20645</v>
+        <v>80291</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Yasmin Pires</t>
+          <t>Sr. Alexandre da Conceição</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,51 +668,51 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45091</v>
+        <v>45082</v>
       </c>
       <c r="G8" t="n">
-        <v>5987.26</v>
+        <v>10104.31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>50338</v>
+        <v>90001</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Emanuella Vieira</t>
+          <t>Srta. Bianca da Mata</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45105</v>
+        <v>45081</v>
       </c>
       <c r="G9" t="n">
-        <v>7799.29</v>
+        <v>5085.26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>76988</v>
+        <v>68304</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>João Silveira</t>
+          <t>Vitor Pereira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,46 +722,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45083</v>
+        <v>45087</v>
       </c>
       <c r="G10" t="n">
-        <v>9052.42</v>
+        <v>4919.26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>52421</v>
+        <v>68191</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Vinicius Jesus</t>
+          <t>Isadora da Mata</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45080</v>
+        <v>45103</v>
       </c>
       <c r="G11" t="n">
-        <v>5255.87</v>
+        <v>6337.93</v>
       </c>
     </row>
   </sheetData>
